--- a/exercise-solutions/ch-3-solutions.xlsx
+++ b/exercise-solutions/ch-3-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\exercise-solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60252996-7DA8-4AEC-BBAE-E853BD1C9F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADCA7A3-97D3-4317-89C5-2237139D18AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tips" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -381,7 +382,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2887,7 +2908,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>This distribution doesn't quite look normal -- it exhibits sizable skew which makes sense, tips start at zero and there a bunch of smaller tips and a then a "long tail" of big-dollar tips.</a:t>
+            <a:t>This distribution doesn't quite look normal -- it exhibits sizable </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>skew</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> which makes sense, tips start at zero and there a bunch of smaller tips and a then a "long tail" of big-dollar tips.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2921,10 +2964,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3609,6 +3648,683 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44219.615072106484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="244" xr:uid="{C9DFE14C-337A-4D91-BB2B-8FF03F4A6321}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="tips"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="244" count="244">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="64"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="67"/>
+        <n v="68"/>
+        <n v="69"/>
+        <n v="70"/>
+        <n v="71"/>
+        <n v="72"/>
+        <n v="73"/>
+        <n v="74"/>
+        <n v="75"/>
+        <n v="76"/>
+        <n v="77"/>
+        <n v="78"/>
+        <n v="79"/>
+        <n v="80"/>
+        <n v="81"/>
+        <n v="82"/>
+        <n v="83"/>
+        <n v="84"/>
+        <n v="85"/>
+        <n v="86"/>
+        <n v="87"/>
+        <n v="88"/>
+        <n v="89"/>
+        <n v="90"/>
+        <n v="91"/>
+        <n v="92"/>
+        <n v="93"/>
+        <n v="94"/>
+        <n v="95"/>
+        <n v="96"/>
+        <n v="97"/>
+        <n v="98"/>
+        <n v="99"/>
+        <n v="100"/>
+        <n v="101"/>
+        <n v="102"/>
+        <n v="103"/>
+        <n v="104"/>
+        <n v="105"/>
+        <n v="106"/>
+        <n v="107"/>
+        <n v="108"/>
+        <n v="109"/>
+        <n v="110"/>
+        <n v="111"/>
+        <n v="112"/>
+        <n v="113"/>
+        <n v="114"/>
+        <n v="115"/>
+        <n v="116"/>
+        <n v="117"/>
+        <n v="118"/>
+        <n v="119"/>
+        <n v="120"/>
+        <n v="121"/>
+        <n v="122"/>
+        <n v="123"/>
+        <n v="124"/>
+        <n v="125"/>
+        <n v="126"/>
+        <n v="127"/>
+        <n v="128"/>
+        <n v="129"/>
+        <n v="130"/>
+        <n v="131"/>
+        <n v="132"/>
+        <n v="133"/>
+        <n v="134"/>
+        <n v="135"/>
+        <n v="136"/>
+        <n v="137"/>
+        <n v="138"/>
+        <n v="139"/>
+        <n v="140"/>
+        <n v="141"/>
+        <n v="142"/>
+        <n v="143"/>
+        <n v="144"/>
+        <n v="145"/>
+        <n v="146"/>
+        <n v="147"/>
+        <n v="148"/>
+        <n v="149"/>
+        <n v="150"/>
+        <n v="151"/>
+        <n v="152"/>
+        <n v="153"/>
+        <n v="154"/>
+        <n v="155"/>
+        <n v="156"/>
+        <n v="157"/>
+        <n v="158"/>
+        <n v="159"/>
+        <n v="160"/>
+        <n v="161"/>
+        <n v="162"/>
+        <n v="163"/>
+        <n v="164"/>
+        <n v="165"/>
+        <n v="166"/>
+        <n v="167"/>
+        <n v="168"/>
+        <n v="169"/>
+        <n v="170"/>
+        <n v="171"/>
+        <n v="172"/>
+        <n v="173"/>
+        <n v="174"/>
+        <n v="175"/>
+        <n v="176"/>
+        <n v="177"/>
+        <n v="178"/>
+        <n v="179"/>
+        <n v="180"/>
+        <n v="181"/>
+        <n v="182"/>
+        <n v="183"/>
+        <n v="184"/>
+        <n v="185"/>
+        <n v="186"/>
+        <n v="187"/>
+        <n v="188"/>
+        <n v="189"/>
+        <n v="190"/>
+        <n v="191"/>
+        <n v="192"/>
+        <n v="193"/>
+        <n v="194"/>
+        <n v="195"/>
+        <n v="196"/>
+        <n v="197"/>
+        <n v="198"/>
+        <n v="199"/>
+        <n v="200"/>
+        <n v="201"/>
+        <n v="202"/>
+        <n v="203"/>
+        <n v="204"/>
+        <n v="205"/>
+        <n v="206"/>
+        <n v="207"/>
+        <n v="208"/>
+        <n v="209"/>
+        <n v="210"/>
+        <n v="211"/>
+        <n v="212"/>
+        <n v="213"/>
+        <n v="214"/>
+        <n v="215"/>
+        <n v="216"/>
+        <n v="217"/>
+        <n v="218"/>
+        <n v="219"/>
+        <n v="220"/>
+        <n v="221"/>
+        <n v="222"/>
+        <n v="223"/>
+        <n v="224"/>
+        <n v="225"/>
+        <n v="226"/>
+        <n v="227"/>
+        <n v="228"/>
+        <n v="229"/>
+        <n v="230"/>
+        <n v="231"/>
+        <n v="232"/>
+        <n v="233"/>
+        <n v="234"/>
+        <n v="235"/>
+        <n v="236"/>
+        <n v="237"/>
+        <n v="238"/>
+        <n v="239"/>
+        <n v="240"/>
+        <n v="241"/>
+        <n v="242"/>
+        <n v="243"/>
+        <n v="244"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="total_bill" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.07" maxValue="50.81" count="229">
+        <n v="16.989999999999998"/>
+        <n v="10.34"/>
+        <n v="21.01"/>
+        <n v="23.68"/>
+        <n v="24.59"/>
+        <n v="25.29"/>
+        <n v="8.77"/>
+        <n v="26.88"/>
+        <n v="15.04"/>
+        <n v="14.78"/>
+        <n v="10.27"/>
+        <n v="35.26"/>
+        <n v="15.42"/>
+        <n v="18.43"/>
+        <n v="14.83"/>
+        <n v="21.58"/>
+        <n v="10.33"/>
+        <n v="16.29"/>
+        <n v="16.97"/>
+        <n v="20.65"/>
+        <n v="17.920000000000002"/>
+        <n v="20.29"/>
+        <n v="15.77"/>
+        <n v="39.42"/>
+        <n v="19.82"/>
+        <n v="17.809999999999999"/>
+        <n v="13.37"/>
+        <n v="12.69"/>
+        <n v="21.7"/>
+        <n v="19.649999999999999"/>
+        <n v="9.5500000000000007"/>
+        <n v="18.350000000000001"/>
+        <n v="15.06"/>
+        <n v="20.69"/>
+        <n v="17.78"/>
+        <n v="24.06"/>
+        <n v="16.309999999999999"/>
+        <n v="16.93"/>
+        <n v="18.690000000000001"/>
+        <n v="31.27"/>
+        <n v="16.04"/>
+        <n v="17.46"/>
+        <n v="13.94"/>
+        <n v="9.68"/>
+        <n v="30.4"/>
+        <n v="18.29"/>
+        <n v="22.23"/>
+        <n v="32.4"/>
+        <n v="28.55"/>
+        <n v="18.04"/>
+        <n v="12.54"/>
+        <n v="10.29"/>
+        <n v="34.81"/>
+        <n v="9.94"/>
+        <n v="25.56"/>
+        <n v="19.489999999999998"/>
+        <n v="38.01"/>
+        <n v="26.41"/>
+        <n v="11.24"/>
+        <n v="48.27"/>
+        <n v="13.81"/>
+        <n v="11.02"/>
+        <n v="17.59"/>
+        <n v="20.079999999999998"/>
+        <n v="16.45"/>
+        <n v="3.07"/>
+        <n v="20.23"/>
+        <n v="15.01"/>
+        <n v="12.02"/>
+        <n v="17.07"/>
+        <n v="26.86"/>
+        <n v="25.28"/>
+        <n v="14.73"/>
+        <n v="10.51"/>
+        <n v="27.2"/>
+        <n v="22.76"/>
+        <n v="17.29"/>
+        <n v="19.440000000000001"/>
+        <n v="16.66"/>
+        <n v="10.07"/>
+        <n v="32.68"/>
+        <n v="15.98"/>
+        <n v="34.83"/>
+        <n v="13.03"/>
+        <n v="18.28"/>
+        <n v="24.71"/>
+        <n v="21.16"/>
+        <n v="28.97"/>
+        <n v="22.49"/>
+        <n v="5.75"/>
+        <n v="16.32"/>
+        <n v="22.75"/>
+        <n v="40.17"/>
+        <n v="27.28"/>
+        <n v="12.03"/>
+        <n v="12.46"/>
+        <n v="11.35"/>
+        <n v="15.38"/>
+        <n v="44.3"/>
+        <n v="22.42"/>
+        <n v="20.92"/>
+        <n v="15.36"/>
+        <n v="20.49"/>
+        <n v="25.21"/>
+        <n v="18.239999999999998"/>
+        <n v="14.31"/>
+        <n v="14"/>
+        <n v="7.25"/>
+        <n v="38.07"/>
+        <n v="23.95"/>
+        <n v="25.71"/>
+        <n v="17.309999999999999"/>
+        <n v="29.93"/>
+        <n v="10.65"/>
+        <n v="12.43"/>
+        <n v="24.08"/>
+        <n v="11.69"/>
+        <n v="13.42"/>
+        <n v="14.26"/>
+        <n v="15.95"/>
+        <n v="12.48"/>
+        <n v="29.8"/>
+        <n v="8.52"/>
+        <n v="14.52"/>
+        <n v="11.38"/>
+        <n v="22.82"/>
+        <n v="19.079999999999998"/>
+        <n v="20.27"/>
+        <n v="11.17"/>
+        <n v="12.26"/>
+        <n v="18.260000000000002"/>
+        <n v="8.51"/>
+        <n v="14.15"/>
+        <n v="16"/>
+        <n v="13.16"/>
+        <n v="17.47"/>
+        <n v="34.299999999999997"/>
+        <n v="41.19"/>
+        <n v="27.05"/>
+        <n v="16.43"/>
+        <n v="8.35"/>
+        <n v="18.64"/>
+        <n v="11.87"/>
+        <n v="9.7799999999999994"/>
+        <n v="7.51"/>
+        <n v="14.07"/>
+        <n v="13.13"/>
+        <n v="17.260000000000002"/>
+        <n v="24.55"/>
+        <n v="19.77"/>
+        <n v="29.85"/>
+        <n v="48.17"/>
+        <n v="25"/>
+        <n v="13.39"/>
+        <n v="16.489999999999998"/>
+        <n v="21.5"/>
+        <n v="12.66"/>
+        <n v="16.21"/>
+        <n v="17.510000000000002"/>
+        <n v="24.52"/>
+        <n v="20.76"/>
+        <n v="31.71"/>
+        <n v="10.59"/>
+        <n v="10.63"/>
+        <n v="50.81"/>
+        <n v="15.81"/>
+        <n v="31.85"/>
+        <n v="16.82"/>
+        <n v="32.9"/>
+        <n v="17.89"/>
+        <n v="14.48"/>
+        <n v="9.6"/>
+        <n v="34.630000000000003"/>
+        <n v="34.65"/>
+        <n v="23.33"/>
+        <n v="45.35"/>
+        <n v="23.17"/>
+        <n v="40.549999999999997"/>
+        <n v="20.9"/>
+        <n v="30.46"/>
+        <n v="18.149999999999999"/>
+        <n v="23.1"/>
+        <n v="15.69"/>
+        <n v="19.809999999999999"/>
+        <n v="28.44"/>
+        <n v="15.48"/>
+        <n v="16.579999999999998"/>
+        <n v="7.56"/>
+        <n v="43.11"/>
+        <n v="13"/>
+        <n v="13.51"/>
+        <n v="18.71"/>
+        <n v="12.74"/>
+        <n v="16.399999999999999"/>
+        <n v="20.53"/>
+        <n v="16.47"/>
+        <n v="26.59"/>
+        <n v="38.729999999999997"/>
+        <n v="24.27"/>
+        <n v="12.76"/>
+        <n v="30.06"/>
+        <n v="25.89"/>
+        <n v="48.33"/>
+        <n v="13.27"/>
+        <n v="28.17"/>
+        <n v="12.9"/>
+        <n v="28.15"/>
+        <n v="11.59"/>
+        <n v="7.74"/>
+        <n v="30.14"/>
+        <n v="12.16"/>
+        <n v="8.58"/>
+        <n v="16.27"/>
+        <n v="10.09"/>
+        <n v="20.45"/>
+        <n v="13.28"/>
+        <n v="22.12"/>
+        <n v="24.01"/>
+        <n v="11.61"/>
+        <n v="10.77"/>
+        <n v="15.53"/>
+        <n v="12.6"/>
+        <n v="32.83"/>
+        <n v="35.83"/>
+        <n v="29.03"/>
+        <n v="27.18"/>
+        <n v="22.67"/>
+        <n v="17.82"/>
+        <n v="18.78"/>
+      </sharedItems>
+      <fieldGroup base="1">
+        <rangePr startNum="3.07" endNum="50.81" groupInterval="5"/>
+        <groupItems count="12">
+          <s v="&lt;3.07"/>
+          <s v="3.07-8.07"/>
+          <s v="8.07-13.07"/>
+          <s v="13.07-18.07"/>
+          <s v="18.07-23.07"/>
+          <s v="23.07-28.07"/>
+          <s v="28.07-33.07"/>
+          <s v="33.07-38.07"/>
+          <s v="38.07-43.07"/>
+          <s v="43.07-48.07"/>
+          <s v="48.07-53.07"/>
+          <s v="&gt;53.07"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="tip" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="10" count="123">
+        <n v="1.01"/>
+        <n v="1.66"/>
+        <n v="3.5"/>
+        <n v="3.31"/>
+        <n v="3.61"/>
+        <n v="4.71"/>
+        <n v="2"/>
+        <n v="3.12"/>
+        <n v="1.96"/>
+        <n v="3.23"/>
+        <n v="1.71"/>
+        <n v="5"/>
+        <n v="1.57"/>
+        <n v="3"/>
+        <n v="3.02"/>
+        <n v="3.92"/>
+        <n v="1.67"/>
+        <n v="3.71"/>
+        <n v="3.35"/>
+        <n v="4.08"/>
+        <n v="2.75"/>
+        <n v="2.23"/>
+        <n v="7.58"/>
+        <n v="3.18"/>
+        <n v="2.34"/>
+        <n v="4.3"/>
+        <n v="1.45"/>
+        <n v="2.5"/>
+        <n v="2.4500000000000002"/>
+        <n v="3.27"/>
+        <n v="3.6"/>
+        <n v="3.07"/>
+        <n v="2.31"/>
+        <n v="2.2400000000000002"/>
+        <n v="2.54"/>
+        <n v="3.06"/>
+        <n v="1.32"/>
+        <n v="5.6"/>
+        <n v="6"/>
+        <n v="2.0499999999999998"/>
+        <n v="2.6"/>
+        <n v="5.2"/>
+        <n v="1.56"/>
+        <n v="4.34"/>
+        <n v="3.51"/>
+        <n v="1.5"/>
+        <n v="1.76"/>
+        <n v="6.73"/>
+        <n v="3.21"/>
+        <n v="1.98"/>
+        <n v="3.76"/>
+        <n v="2.64"/>
+        <n v="3.15"/>
+        <n v="2.4700000000000002"/>
+        <n v="1"/>
+        <n v="2.0099999999999998"/>
+        <n v="2.09"/>
+        <n v="1.97"/>
+        <n v="3.14"/>
+        <n v="2.2000000000000002"/>
+        <n v="1.25"/>
+        <n v="3.08"/>
+        <n v="4"/>
+        <n v="2.71"/>
+        <n v="3.4"/>
+        <n v="1.83"/>
+        <n v="2.0299999999999998"/>
+        <n v="5.17"/>
+        <n v="5.85"/>
+        <n v="3.25"/>
+        <n v="4.7300000000000004"/>
+        <n v="3.48"/>
+        <n v="1.64"/>
+        <n v="4.0599999999999996"/>
+        <n v="4.29"/>
+        <n v="2.5499999999999998"/>
+        <n v="5.07"/>
+        <n v="1.8"/>
+        <n v="2.92"/>
+        <n v="1.68"/>
+        <n v="2.52"/>
+        <n v="4.2"/>
+        <n v="1.48"/>
+        <n v="2.1800000000000002"/>
+        <n v="2.83"/>
+        <n v="6.7"/>
+        <n v="2.2999999999999998"/>
+        <n v="1.36"/>
+        <n v="1.63"/>
+        <n v="1.73"/>
+        <n v="2.74"/>
+        <n v="5.14"/>
+        <n v="3.75"/>
+        <n v="2.61"/>
+        <n v="4.5"/>
+        <n v="1.61"/>
+        <n v="10"/>
+        <n v="3.16"/>
+        <n v="5.15"/>
+        <n v="3.11"/>
+        <n v="3.55"/>
+        <n v="3.68"/>
+        <n v="5.65"/>
+        <n v="6.5"/>
+        <n v="4.1900000000000004"/>
+        <n v="2.56"/>
+        <n v="2.02"/>
+        <n v="1.44"/>
+        <n v="3.41"/>
+        <n v="5.16"/>
+        <n v="9"/>
+        <n v="1.1000000000000001"/>
+        <n v="3.09"/>
+        <n v="1.92"/>
+        <n v="1.58"/>
+        <n v="2.72"/>
+        <n v="2.88"/>
+        <n v="3.39"/>
+        <n v="1.47"/>
+        <n v="1.17"/>
+        <n v="4.67"/>
+        <n v="5.92"/>
+        <n v="1.75"/>
+      </sharedItems>
+      <fieldGroup base="2">
+        <rangePr startNum="1" endNum="10" groupInterval="0.75"/>
+        <groupItems count="14">
+          <s v="&lt;1"/>
+          <s v="1-1.75"/>
+          <s v="1.75-2.5"/>
+          <s v="2.5-3.25"/>
+          <s v="3.25-4"/>
+          <s v="4-4.75"/>
+          <s v="4.75-5.5"/>
+          <s v="5.5-6.25"/>
+          <s v="6.25-7"/>
+          <s v="7-7.75"/>
+          <s v="7.75-8.5"/>
+          <s v="8.5-9.25"/>
+          <s v="9.25-10"/>
+          <s v="&gt;10"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="sex" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="smoker" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="day" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="time" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Dinner"/>
+        <s v="Lunch"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="244">
   <r>
@@ -6054,8 +6770,2453 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="244">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="18"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="19"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="20"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="21"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="22"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="23"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="24"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="25"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="26"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="27"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="28"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="29"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="30"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="31"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="32"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="33"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="34"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="35"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="36"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="37"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="38"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="39"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="27"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="40"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="41"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="42"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="43"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="44"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="45"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="46"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="47"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="21"/>
+    <x v="48"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="60"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="61"/>
+    <x v="49"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="45"/>
+    <x v="50"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="62"/>
+    <x v="51"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="63"/>
+    <x v="52"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="64"/>
+    <x v="53"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="65"/>
+    <x v="54"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="66"/>
+    <x v="55"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="67"/>
+    <x v="56"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="68"/>
+    <x v="57"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="69"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="70"/>
+    <x v="58"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="71"/>
+    <x v="11"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="72"/>
+    <x v="59"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="73"/>
+    <x v="60"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="20"/>
+    <x v="61"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="74"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="75"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="76"/>
+    <x v="63"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="77"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="78"/>
+    <x v="64"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="79"/>
+    <x v="65"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="80"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="81"/>
+    <x v="66"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="82"/>
+    <x v="67"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="83"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="84"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="85"/>
+    <x v="68"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="86"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="87"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="88"/>
+    <x v="2"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="89"/>
+    <x v="54"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="90"/>
+    <x v="25"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="91"/>
+    <x v="69"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="92"/>
+    <x v="70"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="93"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="94"/>
+    <x v="45"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="2"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="95"/>
+    <x v="45"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="96"/>
+    <x v="27"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="97"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="98"/>
+    <x v="27"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="99"/>
+    <x v="71"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="100"/>
+    <x v="19"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="101"/>
+    <x v="72"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="102"/>
+    <x v="73"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="103"/>
+    <x v="74"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="104"/>
+    <x v="50"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="105"/>
+    <x v="62"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="106"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="107"/>
+    <x v="54"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="108"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="109"/>
+    <x v="75"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="110"/>
+    <x v="62"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="111"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="112"/>
+    <x v="76"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="113"/>
+    <x v="45"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="114"/>
+    <x v="77"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="115"/>
+    <x v="78"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="116"/>
+    <x v="32"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="117"/>
+    <x v="79"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="118"/>
+    <x v="27"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="119"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="120"/>
+    <x v="80"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="121"/>
+    <x v="81"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="122"/>
+    <x v="82"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="123"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="124"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="125"/>
+    <x v="83"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="126"/>
+    <x v="45"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="127"/>
+    <x v="84"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="128"/>
+    <x v="45"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="129"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="130"/>
+    <x v="69"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="131"/>
+    <x v="60"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="16"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="132"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="133"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="134"/>
+    <x v="20"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="135"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="136"/>
+    <x v="85"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="137"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="138"/>
+    <x v="11"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="139"/>
+    <x v="86"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="140"/>
+    <x v="45"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="141"/>
+    <x v="87"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="142"/>
+    <x v="88"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="143"/>
+    <x v="89"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="144"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="145"/>
+    <x v="27"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="146"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="147"/>
+    <x v="90"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="148"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="149"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="150"/>
+    <x v="91"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="151"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="152"/>
+    <x v="92"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="153"/>
+    <x v="93"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="154"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="155"/>
+    <x v="2"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="156"/>
+    <x v="27"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="157"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="60"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="158"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="159"/>
+    <x v="71"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="160"/>
+    <x v="33"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="161"/>
+    <x v="94"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="162"/>
+    <x v="95"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="163"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="164"/>
+    <x v="96"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="165"/>
+    <x v="97"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="107"/>
+    <x v="98"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="166"/>
+    <x v="23"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="167"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="168"/>
+    <x v="99"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="169"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="170"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="171"/>
+    <x v="62"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="172"/>
+    <x v="100"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="173"/>
+    <x v="101"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="174"/>
+    <x v="102"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="175"/>
+    <x v="2"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="176"/>
+    <x v="103"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="177"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="33"/>
+    <x v="11"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="178"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="179"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="180"/>
+    <x v="2"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="181"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="182"/>
+    <x v="45"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="183"/>
+    <x v="104"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="184"/>
+    <x v="105"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="185"/>
+    <x v="106"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="186"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="187"/>
+    <x v="107"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="188"/>
+    <x v="11"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="189"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="190"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="191"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="192"/>
+    <x v="55"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="189"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="193"/>
+    <x v="27"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="194"/>
+    <x v="62"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="195"/>
+    <x v="9"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Thur"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="196"/>
+    <x v="108"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="207"/>
+    <x v="197"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="208"/>
+    <x v="198"/>
+    <x v="66"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="209"/>
+    <x v="199"/>
+    <x v="21"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="210"/>
+    <x v="200"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="211"/>
+    <x v="201"/>
+    <x v="109"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="212"/>
+    <x v="202"/>
+    <x v="110"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="213"/>
+    <x v="203"/>
+    <x v="27"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="204"/>
+    <x v="103"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="215"/>
+    <x v="205"/>
+    <x v="111"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="216"/>
+    <x v="206"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="207"/>
+    <x v="45"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="218"/>
+    <x v="208"/>
+    <x v="107"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="219"/>
+    <x v="209"/>
+    <x v="112"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="220"/>
+    <x v="210"/>
+    <x v="59"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="221"/>
+    <x v="117"/>
+    <x v="71"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="222"/>
+    <x v="211"/>
+    <x v="113"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="223"/>
+    <x v="81"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="224"/>
+    <x v="117"/>
+    <x v="114"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="225"/>
+    <x v="212"/>
+    <x v="27"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="226"/>
+    <x v="213"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Fri"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="227"/>
+    <x v="214"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="228"/>
+    <x v="215"/>
+    <x v="115"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="229"/>
+    <x v="216"/>
+    <x v="116"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="230"/>
+    <x v="217"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="231"/>
+    <x v="182"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="232"/>
+    <x v="218"/>
+    <x v="117"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="233"/>
+    <x v="219"/>
+    <x v="118"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="234"/>
+    <x v="220"/>
+    <x v="13"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="235"/>
+    <x v="79"/>
+    <x v="60"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="236"/>
+    <x v="221"/>
+    <x v="54"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="237"/>
+    <x v="222"/>
+    <x v="119"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="238"/>
+    <x v="223"/>
+    <x v="120"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="239"/>
+    <x v="224"/>
+    <x v="121"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="240"/>
+    <x v="225"/>
+    <x v="6"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="241"/>
+    <x v="226"/>
+    <x v="6"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="242"/>
+    <x v="227"/>
+    <x v="122"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <s v="Sat"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="243"/>
+    <x v="228"/>
+    <x v="13"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <s v="Thur"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04039185-8044-462A-9953-F4C74C92E6DA}" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04039185-8044-462A-9953-F4C74C92E6DA}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E19:G30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0">
@@ -6451,7 +9612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A143E94C-AB9B-4AB6-9E0F-7B2960E76B6D}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B120416D-CDC9-4CE4-9950-CBD3B95D0A6A}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6703,53 +9864,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -7523,7 +10642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8665D03C-F509-40D4-92E2-022A13A4766B}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8665D03C-F509-40D4-92E2-022A13A4766B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C250" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -8595,7 +11714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAABE7C0-E890-4B12-A262-9E2AEC41D853}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAABE7C0-E890-4B12-A262-9E2AEC41D853}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -9667,7 +12786,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{880D5539-6E43-4534-9EE7-58E3A5A06C31}" name="PivotTable4" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{880D5539-6E43-4534-9EE7-58E3A5A06C31}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="E19:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0">
@@ -10090,7 +13209,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23E9066-716A-4855-AA1D-541B0552BB72}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C23E9066-716A-4855-AA1D-541B0552BB72}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -11159,6 +14278,23 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDABB370-AA43-4FBC-89BD-5AC0C174686F}" name="tips" displayName="tips" ref="A1:H245" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H245" xr:uid="{4FE66AC9-45D8-4D33-AC42-992B3B769300}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CDC70C5A-E418-4072-93D4-69D2FF68142A}" name="id"/>
+    <tableColumn id="2" xr3:uid="{40C652FB-608A-472A-996E-5991BC896483}" name="total_bill"/>
+    <tableColumn id="3" xr3:uid="{5AB1CB9D-47C4-49D3-B8DE-F4DD246D6DD7}" name="tip"/>
+    <tableColumn id="4" xr3:uid="{A3F2DED6-517E-4DF6-BC0F-B73260584AB6}" name="sex"/>
+    <tableColumn id="5" xr3:uid="{70E8857C-21AD-43E2-B9FB-EB0C67E5ACD6}" name="smoker"/>
+    <tableColumn id="6" xr3:uid="{22B3E888-3008-4B67-A88B-3F74A360A107}" name="day"/>
+    <tableColumn id="7" xr3:uid="{1217D34E-7D0F-4FA0-9594-25188649DB68}" name="time"/>
+    <tableColumn id="8" xr3:uid="{B1530C65-B686-4810-89F9-E15B03C21429}" name="size"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11484,11 +14620,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="9.7890625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -17862,6 +21002,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -17869,15 +21012,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2032DED5-977F-490F-94BF-55720ADDA750}">
   <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.05078125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.41796875" customWidth="1"/>
-    <col min="5" max="5" width="12.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7890625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
@@ -20386,8 +23531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE7EF4F-E2E9-432A-94AA-77FF368E126D}">
   <dimension ref="A3:G250"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22792,7 +25937,7 @@
   <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -25312,7 +28457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0FF60-22A7-4E4F-A394-C2DC512C0A0E}">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -25663,7 +28810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -25705,7 +28852,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>23</v>
       </c>
